--- a/NERPrj/self_tagged/asianews/AsianNews可能存在的问题.xlsx
+++ b/NERPrj/self_tagged/asianews/AsianNews可能存在的问题.xlsx
@@ -16,29 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
-    <r>
-      <t xml:space="preserve">Tibetan/O monks/O ,/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Muslims/O ,/O but/O also/O non/O violent/O dissidents/O ,/O farmers/O and/O members/O of/O underground/O religious/O communities/O are/O among/O those/O arrested/O ./O </t>
-    </r>
-  </si>
-  <si>
     <t>20050309-102.txt</t>
   </si>
   <si>
@@ -80,10 +57,6 @@
     <t>20050317-190.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Tibetan，Xinjiang Muslims </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Xinjiang Muslims group 标记为组织？</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -94,49 +67,8 @@
     <t>20050318-73.txt</t>
   </si>
   <si>
-    <t>Uighur 是否标注为 ORG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;U_PERSON&gt;Rebiya/PERSON Kadeer/PERSON&lt;/U_PERSON&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ,/O 58/O ,/O is/O one/O of/O the/O best/O known/O activists/O for/O women/O 's/O and/O Uighur/O rights/O ./O</t>
-    </r>
-  </si>
-  <si>
     <t>Uighur 是否标为 ORG</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Uighurs/O are/O predominantly/O Muslim/O and/O live/O in/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ,/O China/LOCATION 's/O western-most/O province/O ,/O where/O a/O separatist/O movement/O has/O been/O demanding/O independence/O for/O some/O time/O ./O</t>
-    </r>
   </si>
   <si>
     <t>Uighur 是否标为ORG</t>
@@ -631,6 +563,56 @@
   </si>
   <si>
     <t>US/LOCATION Secretary/O of/O State/O 美国国务卿不是【ORG】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibetan（不是），Xinjiang Muslims </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibetan/O monks/O ,/O &lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt; Muslims/O ,/O but/O also/O non/O violent/O dissidents/O ,/O farmers/O and/O members/O of/O underground/O religious/O communities/O are/O among/O those/O arrested/O ./O </t>
+  </si>
+  <si>
+    <t>Uighur 是否标注为 ORG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;U_PERSON&gt;Rebiya/PERSON Kadeer/PERSON&lt;/U_PERSON&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,/O 58/O ,/O is/O one/O of/O the/O best/O known/O activists/O for/O women/O 's/O and/O Uighur/O rights/O ./O</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uighurs/O are/O predominantly/O Muslim/O and/O live/O in/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,/O China/LOCATION 's/O western-most/O province/O ,/O where/O a/O separatist/O movement/O has/O been/O demanding/O independence/O for/O some/O time/O ./O</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +679,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -718,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -728,6 +723,8 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1034,231 +1031,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/NERPrj/self_tagged/asianews/AsianNews可能存在的问题.xlsx
+++ b/NERPrj/self_tagged/asianews/AsianNews可能存在的问题.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>20050309-102.txt</t>
   </si>
@@ -31,8 +31,140 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Beijing/LOCATION -LRB-/O AsiaNews/Agencies/O -RRB-/O --/O Rebiya/PERSON Kadeer/PERSON ,/O 58/O ,/O an/O ethnic/O Uighur/O -LRB-/O </t>
+    <t>20050317-190.txt</t>
+  </si>
+  <si>
+    <t>Xinjiang Muslims group 标记为组织？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O can/O work/O for/O my/O people/O ,/O and/O I/O can/O work/O for/O the/O entire/O Uighur/O nation/O ''/O ./O</t>
+  </si>
+  <si>
+    <t>20050318-73.txt</t>
+  </si>
+  <si>
+    <t>Uighur 是否标为 ORG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uighur 是否标为ORG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;U_PERSON&gt;Rebiya/PERSON Kadeer/PERSON&lt;/U_PERSON&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,/O an/O Uighur/O political/O dissident/O released/O on/O March/O 17/O ,/O is/O in/O the/O US/LOCATION to/O talk/O about/O human/O rights/O ,/O economics/O and/O Chinese/O prisons/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t>Uighur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20050321-11.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Washington/LOCATION -LRB-/O AsiaNews/Agencies/O -RRB-/O --/O The/O world/O should/O not/O put/O business/O before/O human/O rights/O in/O China/LOCATION ,/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAA4400"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_PERSON&gt;Rebiya/PERSON Kadeer/PERSON&lt;/U_PERSON&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,/O a/O recently-released/O Uighur/O political/O prisoner/O said/O ./O</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>As/O a/O CPPCC/ORGANIZATION member/O ,/O ``/O I/O thought/O I/O could/O speak/O to/O the/O government/O for/O my/O people/O and/O tell/O them/O that/O their/O policies/O toward/O us/O were/O wrong/O and/O point/O out/O the/O discrimination/O and/O lack/O of/O education/O spending/O on/O Uighurs/O ,/O ''/O she/O said/O ./O</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;U_LOCATION&gt;Yining/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -LRB-/O AsiaNews/Forum/O 18/O -RRB-/O --/O Children/O are/O not/O allowed/O inside/O Catholic/ORGANIZATION churches/O in/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -LRB-/O north-western/O China/LOCATION -RRB-/O ,/O this/O according/O to/O Fr/O Sun/PERSON Zin/PERSON Shin/PERSON ,/O a/O Catholic/O priest/O in/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;Yining/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -LRB-/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;Ili-Kazakh/O&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> autonomous/O prefecture/O -RRB-/O ,/O who/O spoke/O to/O </t>
     </r>
     <r>
       <rPr>
@@ -41,161 +173,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;U_ORGANIZATION&gt;Xinjiang/LOCATION Muslim/O&lt;/U_ORGANIZATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> group/O -RRB-/O was/O freed/O today/O and/O allowed/O to/O leave/O China/LOCATION ./O</t>
-    </r>
-  </si>
-  <si>
-    <t>20050317-190.txt</t>
-  </si>
-  <si>
-    <t>Xinjiang Muslims group 标记为组织？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I/O can/O work/O for/O my/O people/O ,/O and/O I/O can/O work/O for/O the/O entire/O Uighur/O nation/O ''/O ./O</t>
-  </si>
-  <si>
-    <t>20050318-73.txt</t>
-  </si>
-  <si>
-    <t>Uighur 是否标为 ORG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uighur 是否标为ORG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;U_PERSON&gt;Rebiya/PERSON Kadeer/PERSON&lt;/U_PERSON&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ,/O an/O Uighur/O political/O dissident/O released/O on/O March/O 17/O ,/O is/O in/O the/O US/LOCATION to/O talk/O about/O human/O rights/O ,/O economics/O and/O Chinese/O prisons/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t>Uighur</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20050321-11.txt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Washington/LOCATION -LRB-/O AsiaNews/Agencies/O -RRB-/O --/O The/O world/O should/O not/O put/O business/O before/O human/O rights/O in/O China/LOCATION ,/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAA4400"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_PERSON&gt;Rebiya/PERSON Kadeer/PERSON&lt;/U_PERSON&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ,/O a/O recently-released/O Uighur/O political/O prisoner/O said/O ./O</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>As/O a/O CPPCC/ORGANIZATION member/O ,/O ``/O I/O thought/O I/O could/O speak/O to/O the/O government/O for/O my/O people/O and/O tell/O them/O that/O their/O policies/O toward/O us/O were/O wrong/O and/O point/O out/O the/O discrimination/O and/O lack/O of/O education/O spending/O on/O Uighurs/O ,/O ''/O she/O said/O ./O</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;U_LOCATION&gt;Yining/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -LRB-/O AsiaNews/Forum/O 18/O -RRB-/O --/O Children/O are/O not/O allowed/O inside/O Catholic/ORGANIZATION churches/O in/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -LRB-/O north-western/O China/LOCATION -RRB-/O ,/O this/O according/O to/O Fr/O Sun/PERSON Zin/PERSON Shin/PERSON ,/O a/O Catholic/O priest/O in/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;Yining/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -LRB-/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;Ili-Kazakh/O&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> autonomous/O prefecture/O -RRB-/O ,/O who/O spoke/O to/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF00319F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>&lt;ORGANIZATION&gt;Forum/O 18/O&lt;/ORGANIZATION&gt;</t>
     </r>
     <r>
@@ -209,45 +186,9 @@
     </r>
   </si>
   <si>
-    <t>Forum 18 标记为 ORG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>20050330-192.txt</t>
   </si>
   <si>
-    <r>
-      <t>&lt;U_LOCATION&gt;Yining/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is/O 100/O kilometres/O -LRB-/O 60/O miles/O -RRB-/O east/O of/O the/O Kazakh/O border/O and/O 600/O kilometres/O -LRB-/O 375/O miles/O -RRB-/O from/O the/O capital/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;Ürümqi/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ./O</t>
-    </r>
-  </si>
-  <si>
     <t>Kazakh 是否标为 LOC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -266,47 +207,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">After/O denying/O that/O there/O was/O any/O ban/O ,/O an/O imam/O at/O the/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF00319F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_ORGANIZATION&gt;Heitkar/LOCATION&lt;/U_ORGANIZATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mosque/O in/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;Kashgar/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> confirmed/O that/O that/O it/O did/O exist/O ./O</t>
-    </r>
-  </si>
-  <si>
     <t>Heitkar 这里的清真寺 是标为 【ORG】?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -315,48 +215,6 @@
   </si>
   <si>
     <t>Several/O Uyghur/O Muslims/O confirmed/O that/O members/O of/O certain/O groups/O were/O not/O allowed/O to/O go/O to/O the/O mosque/O even/O for/O major/O festivals/O such/O as/O Eid/O al-Fitr/O at/O the/O end/O of/O the/O fasting/O month/O of/O Ramadan/O ,/O orEid/O al-Adha/O when/O sheep/O and/O goats/O are/O sacrificed/O to/O recall/O the/O sparing/O of/O Abraham/PERSON 's/O son/O Isaac/PERSON ./O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Eid al-Fitr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（斋月节）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eid al-Adha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（宰牲节）是否标记？</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>He/O continued/O :/O ``/O The/O criteria/O and/O legal/O basis/O for/O identifying/O terrorists/O are/O defined/O by/O our/O criminal/O law/O ,/O internal/O security/O demands/O and/O by/O the/O Shanghai/ORGANIZATION Co-operation/ORGANIZATION Organisation/ORGANIZATION 's/O Shanghai/LOCATION Convention/O on/O Combating/O Terrorism/O ,/O Separatism/O and/O Extremism/O ./O ''/O</t>
-  </si>
-  <si>
-    <t>Convention  那里是否要标记为【ORG】</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -469,8 +327,12 @@
     <t>20140925-21.txt</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">In/O 1989/O he/O took/O part/O in/O the/O </t>
+    <t>Tiananmen 【运动】 暂时标记为 【ORG】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Courts/O convict/O ``/O activists/O ''/O for/O preparing/O ``/O </t>
     </r>
     <r>
       <rPr>
@@ -479,25 +341,95 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;ORGANIZATION&gt;Tiananmen/LOCATION Square/LOCATION&lt;/ORGANIZATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> movement/O ,/O and/O was/O one/O of/O 13/O students/O to/O start/O a/O hunger/O strike/O to/O protest/O the/O corruption/O of/O the/O government/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t>Tiananmen 【运动】 暂时标记为 【ORG】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Courts/O convict/O ``/O activists/O ''/O for/O preparing/O ``/O </t>
+      <t>&lt;U_ORGANIZATION&gt;Holy/O war/O&lt;/U_ORGANIZATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ''/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t>Holy War （圣战）暂时标为【ORG】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20130328-183.txt</t>
+  </si>
+  <si>
+    <t>20131029-32.txt</t>
+  </si>
+  <si>
+    <t>【Imperial Palace】（故宫）标记为【LOC】,【Zhongnanhai】仍为【LOCATION】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100121-131.txt</t>
+  </si>
+  <si>
+    <t>In/O February/O 2009/O ,/O US/LOCATION Secretary/O of/O State/O Hillary/PERSON Clinton/PERSON said/O that/O human/O rights/O ``/O should/O n't/O interfere/O ''/O in/O the/O US-China/O relationship/O ./O</t>
+  </si>
+  <si>
+    <t>US/LOCATION Secretary/O of/O State/O 美国国务卿不是【ORG】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibetan（不是），Xinjiang Muslims </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibetan/O monks/O ,/O &lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt; Muslims/O ,/O but/O also/O non/O violent/O dissidents/O ,/O farmers/O and/O members/O of/O underground/O religious/O communities/O are/O among/O those/O arrested/O ./O </t>
+  </si>
+  <si>
+    <t>Uighur 是否标注为 ORG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;U_PERSON&gt;Rebiya/PERSON Kadeer/PERSON&lt;/U_PERSON&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,/O 58/O ,/O is/O one/O of/O the/O best/O known/O activists/O for/O women/O 's/O and/O Uighur/O rights/O ./O</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uighurs/O are/O predominantly/O Muslim/O and/O live/O in/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,/O China/LOCATION 's/O western-most/O province/O ,/O where/O a/O separatist/O movement/O has/O been/O demanding/O independence/O for/O some/O time/O ./O</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beijing/LOCATION -LRB-/O AsiaNews/Agencies/O -RRB-/O --/O Rebiya/PERSON Kadeer/PERSON ,/O 58/O ,/O an/O ethnic/O Uighur/O -LRB-/O </t>
     </r>
     <r>
       <rPr>
@@ -506,24 +438,183 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;U_ORGANIZATION&gt;Holy/O war/O&lt;/U_ORGANIZATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ''/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t>Holy War （圣战）暂时标为【ORG】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20130328-183.txt</t>
+      <t>&lt;U_ORGANIZATION&gt;Xinjiang/LOCATION Muslim/O&lt;/U_ORGANIZATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> group/O -RRB-/O was/O freed/O today/O and/O allowed/O to/O leave/O China/LOCATION ./O</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uighur都不是实体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forum 18 标记为 【ORG】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forum 18 是否标记为 ORG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;U_LOCATION&gt;Yining/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is/O 100/O kilometres/O -LRB-/O 60/O miles/O -RRB-/O east/O of/O the/O Kazakh/O border/O and/O 600/O kilometres/O -LRB-/O 375/O miles/O -RRB-/O from/O the/O capital/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;Ürümqi/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ./O</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【病毒】不标记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After/O denying/O that/O there/O was/O any/O ban/O ,/O an/O imam/O at/O the/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_ORGANIZATION&gt;Heitkar/LOCATION&lt;/U_ORGANIZATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mosque/O in/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;Kashgar/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> confirmed/O that/O that/O it/O did/O exist/O ./O</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清真寺 【名】 还是标记为【LOC】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eid al-Fitr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（斋月节）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eid al-Adha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（宰牲节）是否标记？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有节日都不标记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>He/O continued/O :/O ``/O The/O criteria/O and/O legal/O basis/O for/O identifying/O terrorists/O are/O defined/O by/O our/O criminal/O law/O ,/O internal/O security/O demands/O and/O by/O the/O Shanghai/ORGANIZATION Co-operation/ORGANIZATION Organisation/ORGANIZATION 's/O Shanghai/LOCATION Convention/O on/O Combating/O Terrorism/O ,/O Separatism/O and/O Extremism/O ./O ''/O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convention  那里是否要标记为【ORG】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convention 不标记 为【ORG】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈里发 不是 PERSON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hospital 还是 【LOC】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>In/O 1989/O he/O took/O part/O in/O the/O &lt;ORGANIZATION&gt;Tiananmen/LOCATION Square/LOCATION&lt;/ORGANIZATION&gt; movement/O ,/O and/O was/O one/O of/O 13/O students/O to/O start/O a/O hunger/O strike/O to/O protest/O the/O corruption/O of/O the/O government/O ./O</t>
+  </si>
+  <si>
+    <t>圣战 应该 不标记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -546,72 +637,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ,/O a/O few/O dozen/O meters/O from/O Zhongnanhai/LOCATION ,/O home/O to/O many/O leaders/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t>20131029-32.txt</t>
-  </si>
-  <si>
-    <t>【Imperial Palace】（故宫）标记为【LOC】,【Zhongnanhai】仍为【LOCATION】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100121-131.txt</t>
-  </si>
-  <si>
-    <t>In/O February/O 2009/O ,/O US/LOCATION Secretary/O of/O State/O Hillary/PERSON Clinton/PERSON said/O that/O human/O rights/O ``/O should/O n't/O interfere/O ''/O in/O the/O US-China/O relationship/O ./O</t>
-  </si>
-  <si>
-    <t>US/LOCATION Secretary/O of/O State/O 美国国务卿不是【ORG】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibetan（不是），Xinjiang Muslims </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibetan/O monks/O ,/O &lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt; Muslims/O ,/O but/O also/O non/O violent/O dissidents/O ,/O farmers/O and/O members/O of/O underground/O religious/O communities/O are/O among/O those/O arrested/O ./O </t>
-  </si>
-  <si>
-    <t>Uighur 是否标注为 ORG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;U_PERSON&gt;Rebiya/PERSON Kadeer/PERSON&lt;/U_PERSON&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ,/O 58/O ,/O is/O one/O of/O the/O best/O known/O activists/O for/O women/O 's/O and/O Uighur/O rights/O ./O</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Uighurs/O are/O predominantly/O Muslim/O and/O live/O in/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;Xinjiang/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ,/O China/LOCATION 's/O western-most/O province/O ,/O where/O a/O separatist/O movement/O has/O been/O demanding/O independence/O for/O some/O time/O ./O</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1032,13 +1057,13 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,212 +1076,263 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="D3" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="D7" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
